--- a/phase1/data/ImportantDataCompiled.xlsx
+++ b/phase1/data/ImportantDataCompiled.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aarij/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aarij/Desktop/python-projects/ie394/phase1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8B4797-97FB-F94A-838F-167978FB4C14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AAC6D4-A32B-B644-A3A8-12C659FA5E88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="1" xr2:uid="{87C77180-4206-E643-A5CE-45D3E51793D4}"/>
+    <workbookView xWindow="2500" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="3" xr2:uid="{87C77180-4206-E643-A5CE-45D3E51793D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="9" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="15" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId3"/>
-    <sheet name="Segments" sheetId="13" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="15" r:id="rId3"/>
+    <sheet name="Buffer Time" sheetId="3" r:id="rId4"/>
     <sheet name="Breakfast,Lunch Times" sheetId="1" r:id="rId5"/>
-    <sheet name="Buffer Time" sheetId="3" r:id="rId6"/>
+    <sheet name="Segments" sheetId="13" r:id="rId6"/>
     <sheet name="Vehicle Capacity" sheetId="5" r:id="rId7"/>
     <sheet name="Meals per School" sheetId="7" r:id="rId8"/>
     <sheet name="Prep Site Capacity" sheetId="12" r:id="rId9"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="233">
   <si>
     <t>438/481</t>
   </si>
@@ -726,6 +726,24 @@
   </si>
   <si>
     <t>Truck</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>leav</t>
+  </si>
+  <si>
+    <t>arrive at 801</t>
+  </si>
+  <si>
+    <t>leave 801</t>
+  </si>
+  <si>
+    <t>arrive 477</t>
   </si>
 </sst>
 </file>
@@ -1427,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78BE22C-2384-9342-B5F4-31867D623567}">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4836,520 +4854,727 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBBE851-C8D5-164D-A671-6F9724AA8C70}">
-  <dimension ref="A1:C58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4D22DA-CA70-584B-BE5E-EC316F2EF2D7}">
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>450</v>
-      </c>
-      <c r="B2">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>438</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="31">
+        <v>0.29513888888888884</v>
+      </c>
+      <c r="D1" s="28">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="E1" s="31">
+        <v>0.43888888888888888</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>801</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="31">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E2" s="31">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>490</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E3" s="31">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>477</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="31">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E4" s="31">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3">
+        <v>110</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="31">
+        <v>0.28819444444444442</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="E5" s="31">
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>316</v>
+      </c>
+      <c r="B6" s="29">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="C6" s="31">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.38541666666666663</v>
+      </c>
+      <c r="E6" s="31">
+        <v>0.42708333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>158</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="31">
+        <v>0.34375</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="E7" s="31">
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>999</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.40624999999999994</v>
+      </c>
+      <c r="E8" s="31">
+        <v>0.44791666666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>488</v>
+      </c>
+      <c r="B9" s="29">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="C9" s="31">
+        <v>0.28125</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.40624999999999994</v>
+      </c>
+      <c r="E9" s="31">
+        <v>0.44791666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>605</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="31">
+        <v>0.28125</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="E10" s="31">
+        <v>0.44097222222222221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>383</v>
+      </c>
+      <c r="B11" s="29">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="C11" s="31">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.45486111111111105</v>
+      </c>
+      <c r="E11" s="31">
+        <v>0.49652777777777773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>436</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="31">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="D12" s="28">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E12" s="31">
+        <v>0.47916666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>499</v>
+      </c>
+      <c r="B13" s="29">
+        <v>0.31249999999999994</v>
+      </c>
+      <c r="C13" s="31">
+        <v>0.32291666666666663</v>
+      </c>
+      <c r="D13" s="28">
+        <v>0.46874999999999994</v>
+      </c>
+      <c r="E13" s="31">
+        <v>0.47916666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>516</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="31">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E14" s="31">
+        <v>0.44791666666666663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>750</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="28">
+        <v>0.40624999999999994</v>
+      </c>
+      <c r="E15" s="31">
+        <v>0.44791666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>203</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="31">
+        <v>0.32291666666666663</v>
+      </c>
+      <c r="D16" s="28">
+        <v>0.11805555555555559</v>
+      </c>
+      <c r="E16" s="31">
+        <v>0.4513888888888889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>223</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="31">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D17" s="28">
+        <v>0.13541666666666671</v>
+      </c>
+      <c r="E17" s="31">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>532</v>
+      </c>
+      <c r="B18" s="29">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C18" s="31">
+        <v>0.3125</v>
+      </c>
+      <c r="D18" s="28">
+        <v>0.45138888888888884</v>
+      </c>
+      <c r="E18" s="31">
+        <v>0.49305555555555552</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>515</v>
+      </c>
+      <c r="B19" s="29">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C19" s="31">
+        <v>0.3125</v>
+      </c>
+      <c r="D19" s="28">
+        <v>0.45138888888888884</v>
+      </c>
+      <c r="E19" s="31">
+        <v>0.49305555555555552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>497</v>
+      </c>
+      <c r="B20" s="29">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C20" s="31">
+        <v>0.3125</v>
+      </c>
+      <c r="D20" s="28">
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="E20" s="31">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>602</v>
+      </c>
+      <c r="B21" s="29">
+        <v>0.31249999999999994</v>
+      </c>
+      <c r="C21" s="31">
+        <v>0.32291666666666663</v>
+      </c>
+      <c r="D21" s="28">
+        <v>0.47916666666666663</v>
+      </c>
+      <c r="E21" s="31">
+        <v>0.48958333333333331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>891</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="28">
+        <v>0.34374999999999994</v>
+      </c>
+      <c r="E22" s="31">
+        <v>0.38541666666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>252</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C23" s="31">
+        <v>0.34375</v>
+      </c>
+      <c r="D23" s="28">
+        <v>0.15625000000000003</v>
+      </c>
+      <c r="E23" s="31">
+        <v>0.48958333333333331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>328</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" s="31">
+        <v>0.3125</v>
+      </c>
+      <c r="D24" s="28">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E24" s="31">
+        <v>0.44791666666666663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
         <v>604</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>450</v>
-      </c>
-      <c r="B3">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>292</v>
-      </c>
-      <c r="B4">
+      <c r="B25" s="29">
+        <v>0.26041666666666663</v>
+      </c>
+      <c r="C25" s="31">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="D25" s="28">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E25" s="31">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>192</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" s="31">
+        <v>0.32291666666666663</v>
+      </c>
+      <c r="D26" s="28">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E26" s="31">
+        <v>0.44791666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>178</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" s="31">
+        <v>0.32291666666666663</v>
+      </c>
+      <c r="D27" s="28">
+        <v>0.1041666666666667</v>
+      </c>
+      <c r="E27" s="31">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>264</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" s="31">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="D28" s="28">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="E28" s="31">
+        <v>0.44791666666666663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="18">
+        <v>478</v>
+      </c>
+      <c r="B29" s="29">
+        <v>0.31249999999999994</v>
+      </c>
+      <c r="C29" s="31">
+        <v>0.32291666666666663</v>
+      </c>
+      <c r="D29" s="28">
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="E29" s="31">
+        <v>0.42708333333333331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>479</v>
+      </c>
+      <c r="B30" s="29">
+        <v>0.28124999999999994</v>
+      </c>
+      <c r="C30" s="31">
+        <v>0.32291666666666663</v>
+      </c>
+      <c r="D30" s="28">
+        <v>0.39930555555555552</v>
+      </c>
+      <c r="E30" s="31">
+        <v>0.44097222222222221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>212</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31" s="31">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="D31" s="28">
+        <v>0.375</v>
+      </c>
+      <c r="E31" s="31">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>213</v>
+      </c>
+      <c r="B32" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C32" s="31">
+        <v>0.34375</v>
+      </c>
+      <c r="D32" s="28">
+        <v>0.47916666666666663</v>
+      </c>
+      <c r="E32" s="31">
+        <v>0.48958333333333331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>533</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="31">
+        <v>0.32986111111111105</v>
+      </c>
+      <c r="D33" s="28">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E33" s="31">
+        <v>0.47916666666666663</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>473</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C34" s="31">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="D34" s="28">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E34" s="31">
+        <v>0.44791666666666663</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>426</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C35" s="31">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="D35" s="28">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E35" s="31">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>168</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C36" s="31">
+        <v>0.28125</v>
+      </c>
+      <c r="D36" s="28">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E36" s="31">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>509</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C37" s="31">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="D37" s="28">
+        <v>0.45763888888888882</v>
+      </c>
+      <c r="E37" s="31">
+        <v>0.4680555555555555</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>117</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="31">
+        <v>0.32291666666666663</v>
+      </c>
+      <c r="D38" s="28">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="E38" s="31">
+        <v>0.44097222222222221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>161</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C39" s="31">
+        <v>0.34375</v>
+      </c>
+      <c r="D39" s="28">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E39" s="31">
+        <v>0.44791666666666663</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>179</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C40" s="31">
+        <v>0.32291666666666663</v>
+      </c>
+      <c r="D40" s="28">
+        <v>0.34375</v>
+      </c>
+      <c r="E40" s="31">
+        <v>0.42708333333333331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
         <v>181</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>292</v>
-      </c>
-      <c r="B5">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>423</v>
-      </c>
-      <c r="B6">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>423</v>
-      </c>
-      <c r="B7">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>423</v>
-      </c>
-      <c r="B8">
-        <v>477</v>
-      </c>
-      <c r="C8">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>423</v>
-      </c>
-      <c r="B9">
-        <v>477</v>
-      </c>
-      <c r="C9">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>214</v>
-      </c>
-      <c r="B10">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>214</v>
-      </c>
-      <c r="B11">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>437</v>
-      </c>
-      <c r="B12">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>218</v>
-      </c>
-      <c r="B13">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="60">
-        <v>984</v>
-      </c>
-      <c r="B14" s="60">
-        <v>394</v>
-      </c>
-      <c r="C14" s="60"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>682</v>
-      </c>
-      <c r="B15">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>682</v>
-      </c>
-      <c r="B16">
-        <v>532</v>
-      </c>
-      <c r="C16">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>682</v>
-      </c>
-      <c r="B17">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>682</v>
-      </c>
-      <c r="B18">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>682</v>
-      </c>
-      <c r="B19">
-        <v>497</v>
-      </c>
-      <c r="C19">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>682</v>
-      </c>
-      <c r="B20">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>461</v>
-      </c>
-      <c r="B21">
-        <v>479</v>
-      </c>
-      <c r="C21" s="19">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>461</v>
-      </c>
-      <c r="B22">
-        <v>479</v>
-      </c>
-      <c r="C22" s="19">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>451</v>
-      </c>
-      <c r="B23">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>451</v>
-      </c>
-      <c r="B24">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>451</v>
-      </c>
-      <c r="B25">
-        <v>212</v>
-      </c>
-      <c r="C25">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>981</v>
-      </c>
-      <c r="B26">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>981</v>
-      </c>
-      <c r="B27">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>405</v>
-      </c>
-      <c r="B28">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>258</v>
-      </c>
-      <c r="B29">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>258</v>
-      </c>
-      <c r="B30">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>248</v>
-      </c>
-      <c r="B31">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>301</v>
-      </c>
-      <c r="B32">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>408</v>
-      </c>
-      <c r="B33">
-        <v>316</v>
-      </c>
-      <c r="C33">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>408</v>
-      </c>
-      <c r="B34">
-        <v>158</v>
-      </c>
-      <c r="C34">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>982</v>
-      </c>
-      <c r="B35">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>982</v>
-      </c>
-      <c r="B36">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>464</v>
-      </c>
-      <c r="B37">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>464</v>
-      </c>
-      <c r="B38">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>464</v>
-      </c>
-      <c r="B39">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>412</v>
-      </c>
-      <c r="B40">
-        <v>223</v>
-      </c>
-      <c r="C40">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>419</v>
-      </c>
-      <c r="B41">
+      <c r="B41" s="29">
+        <v>0.25694444444444442</v>
+      </c>
+      <c r="C41" s="31">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="D41" s="28">
+        <v>0.40624999999999994</v>
+      </c>
+      <c r="E41" s="31">
+        <v>0.44791666666666663</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
         <v>522</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>419</v>
-      </c>
-      <c r="B42">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>424</v>
-      </c>
-      <c r="B43">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>455</v>
-      </c>
-      <c r="B44">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>455</v>
-      </c>
-      <c r="B45">
-        <v>605</v>
-      </c>
-      <c r="C45">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>455</v>
-      </c>
-      <c r="B46">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
-        <v>455</v>
-      </c>
-      <c r="B47">
-        <v>488</v>
-      </c>
-      <c r="C47">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
-        <v>150</v>
-      </c>
-      <c r="B48">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
-        <v>150</v>
-      </c>
-      <c r="B49">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
-        <v>190</v>
-      </c>
-      <c r="B50">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
-        <v>415</v>
-      </c>
-      <c r="B51">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52">
-        <v>415</v>
-      </c>
-      <c r="B52">
-        <v>426</v>
-      </c>
-      <c r="C52">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53">
-        <v>971</v>
-      </c>
-      <c r="B53">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54">
-        <v>971</v>
-      </c>
-      <c r="B54">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55">
-        <v>275</v>
-      </c>
-      <c r="B55">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56">
-        <v>278</v>
-      </c>
-      <c r="B56">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57">
-        <v>457</v>
-      </c>
-      <c r="B57">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58">
-        <v>457</v>
-      </c>
-      <c r="B58">
-        <v>328</v>
+      <c r="B42" s="29">
+        <v>0.26041666666666663</v>
+      </c>
+      <c r="C42" s="31">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="D42" s="28">
+        <v>0.41388888888888886</v>
+      </c>
+      <c r="E42" s="31">
+        <v>0.45555555555555555</v>
       </c>
     </row>
   </sheetData>
@@ -5358,1621 +5583,604 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0724F36-04FC-FA4B-9DE0-53CB23F37FA2}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBBE851-C8D5-164D-A671-6F9724AA8C70}">
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>450</v>
+      </c>
+      <c r="B2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>450</v>
+      </c>
+      <c r="B3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>292</v>
+      </c>
+      <c r="B4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>292</v>
+      </c>
+      <c r="B5">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>423</v>
+      </c>
+      <c r="B6">
+        <v>490</v>
+      </c>
+      <c r="E6" s="1">
+        <v>801</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="H6" s="27">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="I6" s="27">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>423</v>
+      </c>
+      <c r="B7">
+        <v>490</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>423</v>
+      </c>
+      <c r="B8">
+        <v>477</v>
+      </c>
+      <c r="C8">
+        <v>801</v>
+      </c>
+      <c r="E8" s="1">
+        <v>477</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="H8" s="27">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="I8" s="27">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>423</v>
+      </c>
+      <c r="B9">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>214</v>
+      </c>
+      <c r="B10">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>214</v>
+      </c>
+      <c r="B11">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>437</v>
+      </c>
+      <c r="B12">
+        <v>252</v>
+      </c>
+      <c r="F12" t="s">
+        <v>228</v>
+      </c>
+      <c r="G12" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" t="s">
+        <v>230</v>
+      </c>
+      <c r="I12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>218</v>
+      </c>
+      <c r="B13">
+        <v>999</v>
+      </c>
+      <c r="F13">
+        <v>657</v>
+      </c>
+      <c r="G13">
+        <v>712</v>
+      </c>
+      <c r="H13">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="60">
+        <v>984</v>
+      </c>
+      <c r="B14" s="60">
+        <v>394</v>
+      </c>
+      <c r="C14" s="60"/>
+      <c r="F14">
+        <v>642</v>
+      </c>
+      <c r="G14">
+        <v>657</v>
+      </c>
+      <c r="H14">
+        <v>658</v>
+      </c>
+      <c r="I14">
+        <v>713</v>
+      </c>
+      <c r="J14">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>682</v>
+      </c>
+      <c r="B15">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>682</v>
+      </c>
+      <c r="B16">
+        <v>532</v>
+      </c>
+      <c r="C16">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>682</v>
+      </c>
+      <c r="B17">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>682</v>
+      </c>
+      <c r="B18">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>682</v>
+      </c>
+      <c r="B19">
+        <v>497</v>
+      </c>
+      <c r="C19">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>682</v>
+      </c>
+      <c r="B20">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>461</v>
+      </c>
+      <c r="B21">
+        <v>479</v>
+      </c>
+      <c r="C21" s="19">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>461</v>
+      </c>
+      <c r="B22">
+        <v>479</v>
+      </c>
+      <c r="C22" s="19">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>451</v>
+      </c>
+      <c r="B23">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>451</v>
+      </c>
+      <c r="B24">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>451</v>
+      </c>
+      <c r="B25">
+        <v>212</v>
+      </c>
+      <c r="C25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>981</v>
+      </c>
+      <c r="B26">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>981</v>
+      </c>
+      <c r="B27">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>405</v>
+      </c>
+      <c r="B28">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>258</v>
+      </c>
+      <c r="B29">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>258</v>
+      </c>
+      <c r="B30">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>248</v>
+      </c>
+      <c r="B31">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>301</v>
+      </c>
+      <c r="B32">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>408</v>
+      </c>
+      <c r="B33">
+        <v>316</v>
+      </c>
+      <c r="C33">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>408</v>
+      </c>
+      <c r="B34">
+        <v>158</v>
+      </c>
+      <c r="C34">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>982</v>
+      </c>
+      <c r="B35">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>982</v>
+      </c>
+      <c r="B36">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>464</v>
+      </c>
+      <c r="B37">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>464</v>
+      </c>
+      <c r="B38">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>464</v>
+      </c>
+      <c r="B39">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>412</v>
+      </c>
+      <c r="B40">
+        <v>223</v>
+      </c>
+      <c r="C40">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>419</v>
+      </c>
+      <c r="B41">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>419</v>
+      </c>
+      <c r="B42">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>424</v>
+      </c>
+      <c r="B43">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>455</v>
+      </c>
+      <c r="B44">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>455</v>
+      </c>
+      <c r="B45">
+        <v>605</v>
+      </c>
+      <c r="C45">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>455</v>
+      </c>
+      <c r="B46">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>455</v>
+      </c>
+      <c r="B47">
+        <v>488</v>
+      </c>
+      <c r="C47">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>150</v>
+      </c>
+      <c r="B48">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>150</v>
+      </c>
+      <c r="B49">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>190</v>
+      </c>
+      <c r="B50">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>415</v>
+      </c>
+      <c r="B51">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>415</v>
+      </c>
+      <c r="B52">
+        <v>426</v>
+      </c>
+      <c r="C52">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>971</v>
+      </c>
+      <c r="B53">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>971</v>
+      </c>
+      <c r="B54">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>275</v>
+      </c>
+      <c r="B55">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>278</v>
+      </c>
+      <c r="B56">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>457</v>
+      </c>
+      <c r="B57">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>457</v>
+      </c>
+      <c r="B58">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9DF0CD-7E78-B84A-94F5-75976171622B}">
-  <dimension ref="A1:K58"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C58"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37" style="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="60" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="70" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
-        <v>450</v>
-      </c>
-      <c r="B2">
-        <v>604</v>
-      </c>
-      <c r="F2" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>450</v>
-      </c>
-      <c r="B3">
-        <v>604</v>
-      </c>
-      <c r="F3" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="26"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>292</v>
-      </c>
-      <c r="B4">
-        <v>181</v>
-      </c>
-      <c r="F4" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="26"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>292</v>
-      </c>
-      <c r="B5">
-        <v>181</v>
-      </c>
-      <c r="F5" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>423</v>
-      </c>
-      <c r="B6">
-        <v>490</v>
-      </c>
-      <c r="F6" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="26"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>423</v>
-      </c>
-      <c r="B7">
-        <v>490</v>
-      </c>
-      <c r="F7" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
-        <v>423</v>
-      </c>
-      <c r="B8">
-        <v>477</v>
-      </c>
-      <c r="C8">
-        <v>801</v>
-      </c>
-      <c r="F8" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="H8" s="72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>423</v>
-      </c>
-      <c r="B9">
-        <v>477</v>
-      </c>
-      <c r="C9">
-        <v>801</v>
-      </c>
-      <c r="F9" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9" s="74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <v>214</v>
-      </c>
-      <c r="B10">
-        <v>192</v>
-      </c>
-      <c r="F10" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" s="26"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
-        <v>214</v>
-      </c>
-      <c r="B11">
-        <v>192</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="H11" s="26"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
-        <v>437</v>
-      </c>
-      <c r="B12">
-        <v>252</v>
-      </c>
-      <c r="F12" s="75" t="s">
-        <v>135</v>
-      </c>
-      <c r="G12" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="H12" s="26"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13">
-        <v>218</v>
-      </c>
-      <c r="B13">
-        <v>999</v>
-      </c>
-      <c r="F13" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="26"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="60">
-        <v>984</v>
-      </c>
-      <c r="B14" s="60">
-        <v>394</v>
-      </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="75" t="s">
-        <v>224</v>
-      </c>
-      <c r="G14" s="77" t="s">
-        <v>225</v>
-      </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15">
-        <v>682</v>
-      </c>
-      <c r="B15">
-        <v>891</v>
-      </c>
-      <c r="F15" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="26"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16">
-        <v>682</v>
-      </c>
-      <c r="B16">
-        <v>532</v>
-      </c>
-      <c r="C16">
-        <v>602</v>
-      </c>
-      <c r="F16" s="71" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="72" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
-        <v>682</v>
-      </c>
-      <c r="B17">
-        <v>515</v>
-      </c>
-      <c r="F17" s="71" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="H17" s="26"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
-        <v>682</v>
-      </c>
-      <c r="B18">
-        <v>602</v>
-      </c>
-      <c r="F18" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" s="26"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19">
-        <v>682</v>
-      </c>
-      <c r="B19">
-        <v>497</v>
-      </c>
-      <c r="C19">
-        <v>515</v>
-      </c>
-      <c r="F19" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="76" t="s">
-        <v>145</v>
-      </c>
-      <c r="H19" s="74" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20">
-        <v>682</v>
-      </c>
-      <c r="B20">
-        <v>532</v>
-      </c>
-      <c r="F20" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="74">
-        <v>5280</v>
-      </c>
-      <c r="H20" s="26"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
-        <v>461</v>
-      </c>
-      <c r="B21">
-        <v>479</v>
-      </c>
-      <c r="C21" s="19">
-        <v>478</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="H21" s="72" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22">
-        <v>461</v>
-      </c>
-      <c r="B22">
-        <v>479</v>
-      </c>
-      <c r="C22" s="19">
-        <v>478</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="73" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="H22" s="74" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
-        <v>451</v>
-      </c>
-      <c r="B23">
-        <v>213</v>
-      </c>
-      <c r="F23" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="H23" s="26"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
-        <v>451</v>
-      </c>
-      <c r="B24">
-        <v>212</v>
-      </c>
-      <c r="F24" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="26"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25">
-        <v>451</v>
-      </c>
-      <c r="B25">
-        <v>212</v>
-      </c>
-      <c r="C25">
-        <v>213</v>
-      </c>
-      <c r="F25" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" s="74" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="74" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26">
-        <v>981</v>
-      </c>
-      <c r="B26">
-        <v>110</v>
-      </c>
-      <c r="F26" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="26"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27">
-        <v>981</v>
-      </c>
-      <c r="B27">
-        <v>110</v>
-      </c>
-      <c r="F27" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27" s="26"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28">
-        <v>405</v>
-      </c>
-      <c r="B28">
-        <v>264</v>
-      </c>
-      <c r="F28" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="G28" s="76" t="s">
-        <v>134</v>
-      </c>
-      <c r="H28" s="26"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29">
-        <v>258</v>
-      </c>
-      <c r="B29">
-        <v>179</v>
-      </c>
-      <c r="F29" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="H29" s="26"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30">
-        <v>258</v>
-      </c>
-      <c r="B30">
-        <v>179</v>
-      </c>
-      <c r="F30" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="H30" s="26"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31">
-        <v>248</v>
-      </c>
-      <c r="B31">
-        <v>168</v>
-      </c>
-      <c r="F31" s="75" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="H31" s="26"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32">
-        <v>301</v>
-      </c>
-      <c r="B32">
-        <v>438</v>
-      </c>
-      <c r="F32" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="H32" s="26"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33">
-        <v>408</v>
-      </c>
-      <c r="B33">
-        <v>316</v>
-      </c>
-      <c r="C33">
-        <v>158</v>
-      </c>
-      <c r="F33" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="H33" s="72" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34">
-        <v>408</v>
-      </c>
-      <c r="B34">
-        <v>158</v>
-      </c>
-      <c r="C34">
-        <v>316</v>
-      </c>
-      <c r="F34" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="H34" s="74" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35">
-        <v>982</v>
-      </c>
-      <c r="B35">
-        <v>516</v>
-      </c>
-      <c r="F35" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="G35" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="H35" s="26"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36">
-        <v>982</v>
-      </c>
-      <c r="B36">
-        <v>516</v>
-      </c>
-      <c r="F36" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="H36" s="26"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37">
-        <v>464</v>
-      </c>
-      <c r="B37">
-        <v>499</v>
-      </c>
-      <c r="F37" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="G37" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="H37" s="26"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38">
-        <v>464</v>
-      </c>
-      <c r="B38">
-        <v>499</v>
-      </c>
-      <c r="F38" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="G38" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="H38" s="26"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39">
-        <v>464</v>
-      </c>
-      <c r="B39">
-        <v>436</v>
-      </c>
-      <c r="F39" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="G39" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="H39" s="26"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
-        <v>412</v>
-      </c>
-      <c r="B40">
-        <v>223</v>
-      </c>
-      <c r="C40">
-        <v>203</v>
-      </c>
-      <c r="F40" s="75" t="s">
-        <v>117</v>
-      </c>
-      <c r="G40" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="H40" s="76" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41">
-        <v>419</v>
-      </c>
-      <c r="B41">
-        <v>522</v>
-      </c>
-      <c r="F41" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="G41" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="H41" s="26"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42">
-        <v>419</v>
-      </c>
-      <c r="B42">
-        <v>522</v>
-      </c>
-      <c r="F42" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="G42" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="H42" s="26"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43">
-        <v>424</v>
-      </c>
-      <c r="B43">
-        <v>509</v>
-      </c>
-      <c r="F43" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="G43" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="H43" s="26"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44">
-        <v>455</v>
-      </c>
-      <c r="B44">
-        <v>383</v>
-      </c>
-      <c r="F44" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="G44" s="72" t="s">
-        <v>86</v>
-      </c>
-      <c r="H44" s="26"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45">
-        <v>455</v>
-      </c>
-      <c r="B45">
-        <v>605</v>
-      </c>
-      <c r="C45">
-        <v>383</v>
-      </c>
-      <c r="F45" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="G45" s="72" t="s">
-        <v>105</v>
-      </c>
-      <c r="H45" s="74" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
-        <v>455</v>
-      </c>
-      <c r="B46">
-        <v>488</v>
-      </c>
-      <c r="F46" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="G46" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="H46" s="26"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47">
-        <v>455</v>
-      </c>
-      <c r="B47">
-        <v>488</v>
-      </c>
-      <c r="C47">
-        <v>605</v>
-      </c>
-      <c r="F47" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="G47" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="H47" s="74" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48">
-        <v>150</v>
-      </c>
-      <c r="B48">
-        <v>161</v>
-      </c>
-      <c r="F48" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="G48" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="H48" s="26"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49">
-        <v>150</v>
-      </c>
-      <c r="B49">
-        <v>161</v>
-      </c>
-      <c r="F49" s="73" t="s">
-        <v>124</v>
-      </c>
-      <c r="G49" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="H49" s="26"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50">
-        <v>190</v>
-      </c>
-      <c r="B50">
-        <v>750</v>
-      </c>
-      <c r="F50" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="G50" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="H50" s="26"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51">
-        <v>415</v>
-      </c>
-      <c r="B51">
-        <v>426</v>
-      </c>
-      <c r="F51" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="G51" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="H51" s="26"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52">
-        <v>415</v>
-      </c>
-      <c r="B52">
-        <v>426</v>
-      </c>
-      <c r="C52">
-        <v>473</v>
-      </c>
-      <c r="F52" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="G52" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="H52" s="76" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53">
-        <v>971</v>
-      </c>
-      <c r="B53">
-        <v>117</v>
-      </c>
-      <c r="F53" s="71" t="s">
-        <v>126</v>
-      </c>
-      <c r="G53" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="H53" s="26"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54">
-        <v>971</v>
-      </c>
-      <c r="B54">
-        <v>117</v>
-      </c>
-      <c r="F54" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="G54" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="H54" s="26"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55">
-        <v>275</v>
-      </c>
-      <c r="B55">
-        <v>533</v>
-      </c>
-      <c r="F55" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="G55" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="H55" s="26"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56">
-        <v>278</v>
-      </c>
-      <c r="B56">
-        <v>178</v>
-      </c>
-      <c r="F56" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="G56" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="H56" s="26"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57">
-        <v>457</v>
-      </c>
-      <c r="B57">
-        <v>328</v>
-      </c>
-      <c r="F57" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="G57" s="72" t="s">
-        <v>116</v>
-      </c>
-      <c r="H57" s="26"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58">
-        <v>457</v>
-      </c>
-      <c r="B58">
-        <v>328</v>
-      </c>
-      <c r="F58" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="G58" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="H58" s="26"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D7E0C1-6BD7-E74F-ABB8-F65BDAD8DE4D}">
-  <dimension ref="A1:D43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="52.83203125" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1">
-        <v>438</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0.30555555555555552</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0.44930555555555557</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1">
-        <v>801</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0.3125</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0.47916666666666669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1">
-        <v>490</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.34375</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.47916666666666669</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
-        <v>477</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.3125</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0.47916666666666669</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3">
-        <v>110</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.2986111111111111</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0.4548611111111111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1">
-        <v>316</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0.31944444444444448</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1">
-        <v>158</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0.4548611111111111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1">
-        <v>999</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1">
-        <v>488</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1">
-        <v>605</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0.4513888888888889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1">
-        <v>383</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0.31944444444444448</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0.50694444444444442</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1">
-        <v>436</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.3125</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0.48958333333333331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="1">
-        <v>499</v>
-      </c>
-      <c r="C14" s="9">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0.48958333333333331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1">
-        <v>516</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0.3125</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1">
-        <v>750</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1">
-        <v>203</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0.46180555555555558</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="1">
-        <v>223</v>
-      </c>
-      <c r="C18" s="9">
-        <v>0.34722222222222227</v>
-      </c>
-      <c r="D18" s="11">
-        <v>0.47916666666666669</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="1">
-        <v>532</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0.32291666666666669</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0.50347222222222221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="1">
-        <v>515</v>
-      </c>
-      <c r="C20" s="9">
-        <v>0.32291666666666669</v>
-      </c>
-      <c r="D20" s="10">
-        <v>0.50347222222222221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="1">
-        <v>497</v>
-      </c>
-      <c r="C21" s="9">
-        <v>0.32291666666666669</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0.46875</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="1">
-        <v>602</v>
-      </c>
-      <c r="C22" s="9">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1">
-        <v>891</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0.39583333333333331</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="1">
-        <v>252</v>
-      </c>
-      <c r="C24" s="10">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D24" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="1">
-        <v>328</v>
-      </c>
-      <c r="C25" s="10">
-        <v>0.32291666666666669</v>
-      </c>
-      <c r="D25" s="10">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="1">
-        <v>604</v>
-      </c>
-      <c r="C26" s="10">
-        <v>0.3125</v>
-      </c>
-      <c r="D26" s="10">
-        <v>0.44791666666666669</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="1">
-        <v>192</v>
-      </c>
-      <c r="C27" s="10">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="1">
-        <v>178</v>
-      </c>
-      <c r="C28" s="10">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0.44791666666666669</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="1">
-        <v>264</v>
-      </c>
-      <c r="C29" s="10">
-        <v>0.3125</v>
-      </c>
-      <c r="D29" s="10">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="18">
-        <v>478</v>
-      </c>
-      <c r="C30" s="10">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D30" s="10">
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="1">
-        <v>479</v>
-      </c>
-      <c r="C31" s="10">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D31" s="10">
-        <v>0.4513888888888889</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="1">
-        <v>212</v>
-      </c>
-      <c r="C32" s="10">
-        <v>0.3125</v>
-      </c>
-      <c r="D32" s="9">
-        <v>0.46875</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="1">
-        <v>213</v>
-      </c>
-      <c r="C33" s="9">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D33" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="1">
-        <v>533</v>
-      </c>
-      <c r="C34" s="10">
-        <v>0.34027777777777773</v>
-      </c>
-      <c r="D34" s="10">
-        <v>0.48958333333333331</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="1">
-        <v>473</v>
-      </c>
-      <c r="C35" s="10">
-        <v>0.3125</v>
-      </c>
-      <c r="D35" s="9">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="1">
-        <v>426</v>
-      </c>
-      <c r="C36" s="10">
-        <v>0.3125</v>
-      </c>
-      <c r="D36" s="9">
-        <v>0.44791666666666669</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="1">
-        <v>168</v>
-      </c>
-      <c r="C37" s="9">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="D37" s="9">
-        <v>0.47916666666666669</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="1">
-        <v>509</v>
-      </c>
-      <c r="C38" s="10">
-        <v>0.3125</v>
-      </c>
-      <c r="D38" s="9">
-        <v>0.47847222222222219</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="1">
-        <v>117</v>
-      </c>
-      <c r="C39" s="9">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D39" s="9">
-        <v>0.4513888888888889</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="1">
-        <v>161</v>
-      </c>
-      <c r="C40" s="10">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D40" s="10">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="1">
-        <v>179</v>
-      </c>
-      <c r="C41" s="10">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D41" s="10">
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="1">
-        <v>181</v>
-      </c>
-      <c r="C42" s="10">
-        <v>0.30902777777777779</v>
-      </c>
-      <c r="D42" s="10">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="1">
-        <v>522</v>
-      </c>
-      <c r="C43" s="10">
-        <v>0.3125</v>
-      </c>
-      <c r="D43" s="10">
-        <v>0.46597222222222223</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB1E7A8-15B2-F947-A4B9-8F41DE53C1AC}">
   <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10580,6 +9788,1604 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D7E0C1-6BD7-E74F-ABB8-F65BDAD8DE4D}">
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="52.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>438</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0.44930555555555557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>801</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.3125</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>490</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.34375</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>477</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.3125</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>110</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.4548611111111111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>316</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>158</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.4548611111111111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>999</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>488</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1">
+        <v>605</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.4513888888888889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1">
+        <v>383</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.50694444444444442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1">
+        <v>436</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.3125</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.48958333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1">
+        <v>499</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.48958333333333331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1">
+        <v>516</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.3125</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1">
+        <v>750</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1">
+        <v>203</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.46180555555555558</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1">
+        <v>223</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1">
+        <v>532</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.50347222222222221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1">
+        <v>515</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.50347222222222221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1">
+        <v>497</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1">
+        <v>602</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1">
+        <v>891</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1">
+        <v>252</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1">
+        <v>328</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1">
+        <v>604</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.3125</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="1">
+        <v>192</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1">
+        <v>178</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1">
+        <v>264</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0.3125</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="18">
+        <v>478</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1">
+        <v>479</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.4513888888888889</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1">
+        <v>212</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0.3125</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="1">
+        <v>213</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1">
+        <v>533</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.48958333333333331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="1">
+        <v>473</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0.3125</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1">
+        <v>426</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0.3125</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="1">
+        <v>168</v>
+      </c>
+      <c r="C37" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="1">
+        <v>509</v>
+      </c>
+      <c r="C38" s="10">
+        <v>0.3125</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0.47847222222222219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="1">
+        <v>117</v>
+      </c>
+      <c r="C39" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0.4513888888888889</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="1">
+        <v>161</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="1">
+        <v>179</v>
+      </c>
+      <c r="C41" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="1">
+        <v>181</v>
+      </c>
+      <c r="C42" s="10">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="1">
+        <v>522</v>
+      </c>
+      <c r="C43" s="10">
+        <v>0.3125</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0.46597222222222223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9DF0CD-7E78-B84A-94F5-75976171622B}">
+  <dimension ref="A1:K58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="60" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="60" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="70" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>450</v>
+      </c>
+      <c r="B2">
+        <v>604</v>
+      </c>
+      <c r="F2" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>450</v>
+      </c>
+      <c r="B3">
+        <v>604</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>292</v>
+      </c>
+      <c r="B4">
+        <v>181</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>292</v>
+      </c>
+      <c r="B5">
+        <v>181</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>423</v>
+      </c>
+      <c r="B6">
+        <v>490</v>
+      </c>
+      <c r="F6" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>423</v>
+      </c>
+      <c r="B7">
+        <v>490</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>423</v>
+      </c>
+      <c r="B8">
+        <v>477</v>
+      </c>
+      <c r="C8">
+        <v>801</v>
+      </c>
+      <c r="F8" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>423</v>
+      </c>
+      <c r="B9">
+        <v>477</v>
+      </c>
+      <c r="C9">
+        <v>801</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>214</v>
+      </c>
+      <c r="B10">
+        <v>192</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="26"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>214</v>
+      </c>
+      <c r="B11">
+        <v>192</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>437</v>
+      </c>
+      <c r="B12">
+        <v>252</v>
+      </c>
+      <c r="F12" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>218</v>
+      </c>
+      <c r="B13">
+        <v>999</v>
+      </c>
+      <c r="F13" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="60">
+        <v>984</v>
+      </c>
+      <c r="B14" s="60">
+        <v>394</v>
+      </c>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>682</v>
+      </c>
+      <c r="B15">
+        <v>891</v>
+      </c>
+      <c r="F15" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>682</v>
+      </c>
+      <c r="B16">
+        <v>532</v>
+      </c>
+      <c r="C16">
+        <v>602</v>
+      </c>
+      <c r="F16" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>682</v>
+      </c>
+      <c r="B17">
+        <v>515</v>
+      </c>
+      <c r="F17" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>682</v>
+      </c>
+      <c r="B18">
+        <v>602</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>682</v>
+      </c>
+      <c r="B19">
+        <v>497</v>
+      </c>
+      <c r="C19">
+        <v>515</v>
+      </c>
+      <c r="F19" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" s="74" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>682</v>
+      </c>
+      <c r="B20">
+        <v>532</v>
+      </c>
+      <c r="F20" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="74">
+        <v>5280</v>
+      </c>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>461</v>
+      </c>
+      <c r="B21">
+        <v>479</v>
+      </c>
+      <c r="C21" s="19">
+        <v>478</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="72" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>461</v>
+      </c>
+      <c r="B22">
+        <v>479</v>
+      </c>
+      <c r="C22" s="19">
+        <v>478</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" s="74" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>451</v>
+      </c>
+      <c r="B23">
+        <v>213</v>
+      </c>
+      <c r="F23" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>451</v>
+      </c>
+      <c r="B24">
+        <v>212</v>
+      </c>
+      <c r="F24" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>451</v>
+      </c>
+      <c r="B25">
+        <v>212</v>
+      </c>
+      <c r="C25">
+        <v>213</v>
+      </c>
+      <c r="F25" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>981</v>
+      </c>
+      <c r="B26">
+        <v>110</v>
+      </c>
+      <c r="F26" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>981</v>
+      </c>
+      <c r="B27">
+        <v>110</v>
+      </c>
+      <c r="F27" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>405</v>
+      </c>
+      <c r="B28">
+        <v>264</v>
+      </c>
+      <c r="F28" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>258</v>
+      </c>
+      <c r="B29">
+        <v>179</v>
+      </c>
+      <c r="F29" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>258</v>
+      </c>
+      <c r="B30">
+        <v>179</v>
+      </c>
+      <c r="F30" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>248</v>
+      </c>
+      <c r="B31">
+        <v>168</v>
+      </c>
+      <c r="F31" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31" s="26"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>301</v>
+      </c>
+      <c r="B32">
+        <v>438</v>
+      </c>
+      <c r="F32" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="26"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>408</v>
+      </c>
+      <c r="B33">
+        <v>316</v>
+      </c>
+      <c r="C33">
+        <v>158</v>
+      </c>
+      <c r="F33" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>408</v>
+      </c>
+      <c r="B34">
+        <v>158</v>
+      </c>
+      <c r="C34">
+        <v>316</v>
+      </c>
+      <c r="F34" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="74" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>982</v>
+      </c>
+      <c r="B35">
+        <v>516</v>
+      </c>
+      <c r="F35" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" s="26"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>982</v>
+      </c>
+      <c r="B36">
+        <v>516</v>
+      </c>
+      <c r="F36" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" s="26"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>464</v>
+      </c>
+      <c r="B37">
+        <v>499</v>
+      </c>
+      <c r="F37" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" s="26"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>464</v>
+      </c>
+      <c r="B38">
+        <v>499</v>
+      </c>
+      <c r="F38" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="H38" s="26"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>464</v>
+      </c>
+      <c r="B39">
+        <v>436</v>
+      </c>
+      <c r="F39" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" s="26"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>412</v>
+      </c>
+      <c r="B40">
+        <v>223</v>
+      </c>
+      <c r="C40">
+        <v>203</v>
+      </c>
+      <c r="F40" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="H40" s="76" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>419</v>
+      </c>
+      <c r="B41">
+        <v>522</v>
+      </c>
+      <c r="F41" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" s="26"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>419</v>
+      </c>
+      <c r="B42">
+        <v>522</v>
+      </c>
+      <c r="F42" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" s="26"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>424</v>
+      </c>
+      <c r="B43">
+        <v>509</v>
+      </c>
+      <c r="F43" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" s="26"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>455</v>
+      </c>
+      <c r="B44">
+        <v>383</v>
+      </c>
+      <c r="F44" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" s="26"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>455</v>
+      </c>
+      <c r="B45">
+        <v>605</v>
+      </c>
+      <c r="C45">
+        <v>383</v>
+      </c>
+      <c r="F45" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="G45" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="H45" s="74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>455</v>
+      </c>
+      <c r="B46">
+        <v>488</v>
+      </c>
+      <c r="F46" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="H46" s="26"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>455</v>
+      </c>
+      <c r="B47">
+        <v>488</v>
+      </c>
+      <c r="C47">
+        <v>605</v>
+      </c>
+      <c r="F47" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="H47" s="74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>150</v>
+      </c>
+      <c r="B48">
+        <v>161</v>
+      </c>
+      <c r="F48" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="G48" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="H48" s="26"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>150</v>
+      </c>
+      <c r="B49">
+        <v>161</v>
+      </c>
+      <c r="F49" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="G49" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="H49" s="26"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>190</v>
+      </c>
+      <c r="B50">
+        <v>750</v>
+      </c>
+      <c r="F50" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="G50" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="H50" s="26"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>415</v>
+      </c>
+      <c r="B51">
+        <v>426</v>
+      </c>
+      <c r="F51" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="G51" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="H51" s="26"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>415</v>
+      </c>
+      <c r="B52">
+        <v>426</v>
+      </c>
+      <c r="C52">
+        <v>473</v>
+      </c>
+      <c r="F52" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="G52" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="H52" s="76" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>971</v>
+      </c>
+      <c r="B53">
+        <v>117</v>
+      </c>
+      <c r="F53" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="H53" s="26"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>971</v>
+      </c>
+      <c r="B54">
+        <v>117</v>
+      </c>
+      <c r="F54" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="H54" s="26"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>275</v>
+      </c>
+      <c r="B55">
+        <v>533</v>
+      </c>
+      <c r="F55" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="G55" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="H55" s="26"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>278</v>
+      </c>
+      <c r="B56">
+        <v>178</v>
+      </c>
+      <c r="F56" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="G56" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="H56" s="26"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>457</v>
+      </c>
+      <c r="B57">
+        <v>328</v>
+      </c>
+      <c r="F57" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="G57" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="H57" s="26"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>457</v>
+      </c>
+      <c r="B58">
+        <v>328</v>
+      </c>
+      <c r="F58" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="G58" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="H58" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132EF5F3-4B85-1449-AFCF-94494BD9800F}">
   <dimension ref="A1:B2"/>
@@ -10615,8 +11421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC2C296-2B52-284F-BAC4-8734C71CD436}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
